--- a/REGULAR/GUTIERREZ, LYDIA CALANOG.xlsx
+++ b/REGULAR/GUTIERREZ, LYDIA CALANOG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5050E686-5D19-4743-A777-BEF570D0644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="375">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1156,12 +1155,15 @@
   </si>
   <si>
     <t>10/24,28</t>
+  </si>
+  <si>
+    <t>HRMO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1885,25 +1887,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K542" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2210,34 +2212,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K542"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A508" activePane="bottomLeft"/>
-      <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="K513" sqref="K513"/>
+      <pane ySplit="3570" topLeftCell="A505" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="C523" sqref="C523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2258,7 +2260,7 @@
       <c r="J2" s="62"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2278,7 +2280,7 @@
       <c r="J3" s="64"/>
       <c r="K3" s="65"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2289,7 +2291,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
+      <c r="F4" s="62" t="s">
+        <v>374</v>
+      </c>
       <c r="G4" s="62"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -2298,7 +2302,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2306,7 +2310,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2319,7 +2323,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="60" t="s">
@@ -2336,7 +2340,7 @@
       <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2382,7 +2386,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>191.38199999999995</v>
+        <v>196.38199999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="49">
@@ -2391,14 +2395,14 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>410.5</v>
+        <v>415.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2420,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>34000</v>
       </c>
@@ -2440,7 +2444,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34028</v>
       </c>
@@ -2460,7 +2464,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>34059</v>
       </c>
@@ -2480,7 +2484,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34089</v>
       </c>
@@ -2500,7 +2504,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>34120</v>
       </c>
@@ -2526,7 +2530,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34150</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
         <v>34181</v>
       </c>
@@ -2566,7 +2570,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34212</v>
       </c>
@@ -2586,7 +2590,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>34242</v>
       </c>
@@ -2614,7 +2618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34273</v>
       </c>
@@ -2640,7 +2644,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23">
         <v>34303</v>
       </c>
@@ -2660,7 +2664,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34334</v>
       </c>
@@ -2680,7 +2684,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="50" t="s">
         <v>50</v>
       </c>
@@ -2698,7 +2702,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23">
         <v>34365</v>
       </c>
@@ -2718,7 +2722,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>34393</v>
       </c>
@@ -2738,7 +2742,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>34424</v>
       </c>
@@ -2758,7 +2762,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>34427</v>
       </c>
@@ -2784,7 +2788,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>34485</v>
       </c>
@@ -2804,7 +2808,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>34515</v>
       </c>
@@ -2824,7 +2828,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
         <v>34546</v>
       </c>
@@ -2850,7 +2854,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>34577</v>
       </c>
@@ -2870,7 +2874,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>34607</v>
       </c>
@@ -2890,7 +2894,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>34638</v>
       </c>
@@ -2910,7 +2914,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
         <v>34668</v>
       </c>
@@ -2930,7 +2934,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>34699</v>
       </c>
@@ -2956,7 +2960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="50" t="s">
         <v>55</v>
       </c>
@@ -2974,7 +2978,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>34730</v>
       </c>
@@ -3000,7 +3004,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>34758</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23">
         <v>34789</v>
       </c>
@@ -3046,7 +3050,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>34819</v>
       </c>
@@ -3066,7 +3070,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23">
         <v>34850</v>
       </c>
@@ -3092,7 +3096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>57</v>
@@ -3114,7 +3118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>60</v>
@@ -3136,7 +3140,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23">
         <v>34880</v>
       </c>
@@ -3156,7 +3160,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>34911</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>34942</v>
       </c>
@@ -3202,7 +3206,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>34972</v>
       </c>
@@ -3228,7 +3232,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35003</v>
       </c>
@@ -3248,7 +3252,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35033</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35064</v>
       </c>
@@ -3300,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>60</v>
@@ -3322,7 +3326,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
         <v>63</v>
       </c>
@@ -3340,7 +3344,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>35095</v>
       </c>
@@ -3360,7 +3364,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35123</v>
       </c>
@@ -3380,7 +3384,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23">
         <v>35155</v>
       </c>
@@ -3400,7 +3404,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35185</v>
       </c>
@@ -3420,7 +3424,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
         <v>35216</v>
       </c>
@@ -3446,7 +3450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>57</v>
@@ -3468,7 +3472,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23">
         <v>35246</v>
       </c>
@@ -3492,7 +3496,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>66</v>
@@ -3512,7 +3516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>35277</v>
       </c>
@@ -3532,7 +3536,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>35308</v>
       </c>
@@ -3552,7 +3556,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>35338</v>
       </c>
@@ -3578,7 +3582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>46</v>
@@ -3600,7 +3604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>59</v>
@@ -3622,7 +3626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>35369</v>
       </c>
@@ -3642,7 +3646,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>35399</v>
       </c>
@@ -3662,7 +3666,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>35430</v>
       </c>
@@ -3688,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="52" t="s">
         <v>69</v>
@@ -3710,7 +3714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="50" t="s">
         <v>71</v>
       </c>
@@ -3728,7 +3732,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>35461</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>35489</v>
       </c>
@@ -3780,7 +3784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>35520</v>
       </c>
@@ -3804,7 +3808,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>35550</v>
       </c>
@@ -3830,7 +3834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>35581</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>35611</v>
       </c>
@@ -3870,7 +3874,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>35642</v>
       </c>
@@ -3890,7 +3894,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>35673</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>35703</v>
       </c>
@@ -3930,7 +3934,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>35734</v>
       </c>
@@ -3956,7 +3960,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>35764</v>
       </c>
@@ -3980,7 +3984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>35795</v>
       </c>
@@ -4004,7 +4008,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="50" t="s">
         <v>74</v>
       </c>
@@ -4022,7 +4026,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>35826</v>
       </c>
@@ -4046,7 +4050,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>35854</v>
       </c>
@@ -4070,7 +4074,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>77</v>
@@ -4090,7 +4094,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>35885</v>
       </c>
@@ -4116,7 +4120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>35915</v>
       </c>
@@ -4140,7 +4144,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>80</v>
@@ -4160,7 +4164,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>35946</v>
       </c>
@@ -4184,7 +4188,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>35976</v>
       </c>
@@ -4208,7 +4212,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36007</v>
       </c>
@@ -4232,7 +4236,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36038</v>
       </c>
@@ -4258,7 +4262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>84</v>
@@ -4278,7 +4282,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36068</v>
       </c>
@@ -4302,7 +4306,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>36099</v>
       </c>
@@ -4328,7 +4332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>86</v>
@@ -4348,7 +4352,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>36129</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>36160</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>90</v>
@@ -4420,7 +4424,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>91</v>
@@ -4440,7 +4444,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="50" t="s">
         <v>92</v>
       </c>
@@ -4458,7 +4462,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>36191</v>
       </c>
@@ -4482,7 +4486,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>36219</v>
       </c>
@@ -4508,7 +4512,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>95</v>
@@ -4528,7 +4532,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>36250</v>
       </c>
@@ -4552,7 +4556,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>36280</v>
       </c>
@@ -4574,7 +4578,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>36311</v>
       </c>
@@ -4600,7 +4604,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>99</v>
@@ -4620,7 +4624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>101</v>
@@ -4640,7 +4644,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>36341</v>
       </c>
@@ -4666,7 +4670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>102</v>
@@ -4686,7 +4690,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>36372</v>
       </c>
@@ -4712,7 +4716,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>58</v>
@@ -4734,7 +4738,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>97</v>
@@ -4754,7 +4758,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>36403</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>106</v>
@@ -4800,7 +4804,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>36433</v>
       </c>
@@ -4824,7 +4828,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>36464</v>
       </c>
@@ -4848,7 +4852,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>59</v>
@@ -4870,7 +4874,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>36494</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>59</v>
@@ -4918,7 +4922,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>107</v>
@@ -4938,7 +4942,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>36525</v>
       </c>
@@ -4962,7 +4966,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>59</v>
@@ -4984,7 +4988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="50" t="s">
         <v>110</v>
       </c>
@@ -5002,7 +5006,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>36556</v>
       </c>
@@ -5028,7 +5032,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>112</v>
@@ -5048,7 +5052,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>36584</v>
       </c>
@@ -5072,7 +5076,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="41">
         <v>36616</v>
       </c>
@@ -5096,7 +5100,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>114</v>
@@ -5116,7 +5120,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>36646</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="41"/>
       <c r="B133" s="15" t="s">
         <v>117</v>
@@ -5162,7 +5166,7 @@
       <c r="J133" s="12"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>36677</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>118</v>
@@ -5206,7 +5210,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41">
         <v>36707</v>
       </c>
@@ -5230,7 +5234,7 @@
       <c r="J136" s="12"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>36738</v>
       </c>
@@ -5256,7 +5260,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>36769</v>
       </c>
@@ -5282,7 +5286,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41"/>
       <c r="B139" s="15" t="s">
         <v>123</v>
@@ -5302,7 +5306,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>36799</v>
       </c>
@@ -5328,7 +5332,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="15" t="s">
         <v>59</v>
@@ -5350,7 +5354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="41"/>
       <c r="B142" s="15" t="s">
         <v>125</v>
@@ -5370,7 +5374,7 @@
       <c r="J142" s="12"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>36830</v>
       </c>
@@ -5396,7 +5400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>126</v>
@@ -5416,7 +5420,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="41">
         <v>36860</v>
       </c>
@@ -5440,7 +5444,7 @@
       <c r="J145" s="12"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>36891</v>
       </c>
@@ -5466,7 +5470,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>128</v>
@@ -5486,7 +5490,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="57" t="s">
         <v>129</v>
       </c>
@@ -5504,7 +5508,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>36922</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>59</v>
@@ -5552,7 +5556,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20" t="s">
         <v>130</v>
@@ -5572,7 +5576,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>36950</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>131</v>
@@ -5620,7 +5624,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>36981</v>
       </c>
@@ -5644,7 +5648,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>135</v>
@@ -5666,7 +5670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>37011</v>
       </c>
@@ -5690,7 +5694,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>58</v>
@@ -5712,7 +5716,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>37042</v>
       </c>
@@ -5736,7 +5740,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>66</v>
@@ -5756,7 +5760,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>64</v>
@@ -5778,7 +5782,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>37072</v>
       </c>
@@ -5802,7 +5806,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>37103</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>101</v>
@@ -5848,7 +5852,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>37134</v>
       </c>
@@ -5874,7 +5878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>66</v>
@@ -5894,7 +5898,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>142</v>
@@ -5914,7 +5918,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>37164</v>
       </c>
@@ -5938,7 +5942,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>37195</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>59</v>
@@ -5986,7 +5990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="41">
         <v>37225</v>
       </c>
@@ -6012,7 +6016,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>37256</v>
       </c>
@@ -6036,7 +6040,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="50" t="s">
         <v>145</v>
       </c>
@@ -6054,7 +6058,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>37287</v>
       </c>
@@ -6078,7 +6082,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>37315</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>59</v>
@@ -6126,7 +6130,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20" t="s">
         <v>149</v>
@@ -6146,7 +6150,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>66</v>
@@ -6166,7 +6170,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>37346</v>
       </c>
@@ -6190,7 +6194,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>59</v>
@@ -6210,7 +6214,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>37376</v>
       </c>
@@ -6236,7 +6240,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>154</v>
@@ -6256,7 +6260,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>37407</v>
       </c>
@@ -6282,7 +6286,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>57</v>
@@ -6304,7 +6308,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>37437</v>
       </c>
@@ -6324,7 +6328,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>37468</v>
       </c>
@@ -6344,7 +6348,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>37499</v>
       </c>
@@ -6364,7 +6368,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>37529</v>
       </c>
@@ -6384,7 +6388,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>37560</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20" t="s">
         <v>64</v>
@@ -6432,7 +6436,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>37590</v>
       </c>
@@ -6456,7 +6460,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>37621</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="50" t="s">
         <v>161</v>
       </c>
@@ -6500,7 +6504,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>37652</v>
       </c>
@@ -6526,7 +6530,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>37680</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>37711</v>
       </c>
@@ -6576,7 +6580,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>37741</v>
       </c>
@@ -6600,7 +6604,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>37772</v>
       </c>
@@ -6620,7 +6624,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>37802</v>
       </c>
@@ -6646,7 +6650,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>37833</v>
       </c>
@@ -6666,7 +6670,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>37864</v>
       </c>
@@ -6692,7 +6696,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>37894</v>
       </c>
@@ -6718,7 +6722,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>53</v>
@@ -6740,7 +6744,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>37925</v>
       </c>
@@ -6760,7 +6764,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>37955</v>
       </c>
@@ -6784,7 +6788,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>37986</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>171</v>
@@ -6830,7 +6834,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="50" t="s">
         <v>172</v>
       </c>
@@ -6848,7 +6852,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>38017</v>
       </c>
@@ -6872,7 +6876,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>38045</v>
       </c>
@@ -6898,7 +6902,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>175</v>
@@ -6918,7 +6922,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38077</v>
       </c>
@@ -6942,7 +6946,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>38107</v>
       </c>
@@ -6966,7 +6970,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>38138</v>
       </c>
@@ -6992,7 +6996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20" t="s">
         <v>57</v>
@@ -7014,7 +7018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>179</v>
@@ -7034,7 +7038,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>38168</v>
       </c>
@@ -7056,7 +7060,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38199</v>
       </c>
@@ -7082,7 +7086,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>144</v>
@@ -7102,7 +7106,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38230</v>
       </c>
@@ -7126,7 +7130,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>38260</v>
       </c>
@@ -7152,7 +7156,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>184</v>
@@ -7172,7 +7176,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>38291</v>
       </c>
@@ -7198,7 +7202,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>99</v>
@@ -7218,7 +7222,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>188</v>
@@ -7238,7 +7242,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>66</v>
@@ -7258,7 +7262,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>38321</v>
       </c>
@@ -7282,7 +7286,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>53</v>
@@ -7304,7 +7308,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>59</v>
@@ -7326,7 +7330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>38352</v>
       </c>
@@ -7348,7 +7352,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="50" t="s">
         <v>194</v>
       </c>
@@ -7366,7 +7370,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>38383</v>
       </c>
@@ -7390,7 +7394,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>59</v>
@@ -7412,7 +7416,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>197</v>
@@ -7432,7 +7436,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>38411</v>
       </c>
@@ -7456,7 +7460,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>38442</v>
       </c>
@@ -7480,7 +7484,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>38472</v>
       </c>
@@ -7506,7 +7510,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>58</v>
@@ -7528,7 +7532,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>202</v>
@@ -7548,7 +7552,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>53</v>
@@ -7570,7 +7574,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>66</v>
@@ -7590,7 +7594,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>38503</v>
       </c>
@@ -7614,7 +7618,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>206</v>
@@ -7636,7 +7640,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>38533</v>
       </c>
@@ -7660,7 +7664,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>171</v>
@@ -7680,7 +7684,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>38564</v>
       </c>
@@ -7704,7 +7708,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>38595</v>
       </c>
@@ -7728,7 +7732,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>38625</v>
       </c>
@@ -7752,7 +7756,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>66</v>
@@ -7772,7 +7776,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>38656</v>
       </c>
@@ -7796,7 +7800,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>38686</v>
       </c>
@@ -7820,7 +7824,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>38717</v>
       </c>
@@ -7844,7 +7848,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="50" t="s">
         <v>216</v>
       </c>
@@ -7862,7 +7866,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>11324</v>
       </c>
@@ -7882,7 +7886,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>46784</v>
       </c>
@@ -7902,7 +7906,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>11383</v>
       </c>
@@ -7926,7 +7930,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>219</v>
@@ -7946,7 +7950,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>11049</v>
       </c>
@@ -7972,7 +7976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>11444</v>
       </c>
@@ -7992,7 +7996,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>11110</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>11505</v>
       </c>
@@ -8038,7 +8042,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>11536</v>
       </c>
@@ -8058,7 +8062,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>11202</v>
       </c>
@@ -8084,7 +8088,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>11597</v>
       </c>
@@ -8104,7 +8108,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>11263</v>
       </c>
@@ -8124,7 +8128,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>11658</v>
       </c>
@@ -8150,7 +8154,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="50" t="s">
         <v>227</v>
       </c>
@@ -8168,7 +8172,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>11324</v>
       </c>
@@ -8188,7 +8192,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>46784</v>
       </c>
@@ -8208,7 +8212,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>11383</v>
       </c>
@@ -8228,7 +8232,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>11049</v>
       </c>
@@ -8248,7 +8252,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>11444</v>
       </c>
@@ -8272,7 +8276,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>11110</v>
       </c>
@@ -8292,7 +8296,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>11505</v>
       </c>
@@ -8312,7 +8316,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>11536</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>231</v>
@@ -8358,7 +8362,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40">
         <v>11202</v>
       </c>
@@ -8378,7 +8382,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>11597</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>38995</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>11263</v>
       </c>
@@ -8430,7 +8434,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>11658</v>
       </c>
@@ -8454,7 +8458,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>229</v>
@@ -8476,7 +8480,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="50" t="s">
         <v>237</v>
       </c>
@@ -8494,7 +8498,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>11324</v>
       </c>
@@ -8514,7 +8518,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>46784</v>
       </c>
@@ -8538,7 +8542,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>11383</v>
       </c>
@@ -8558,7 +8562,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>11049</v>
       </c>
@@ -8584,7 +8588,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>11444</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>242</v>
@@ -8632,7 +8636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>224</v>
@@ -8654,7 +8658,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>246</v>
@@ -8676,7 +8680,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>11110</v>
       </c>
@@ -8702,7 +8706,7 @@
         <v>39599</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>11505</v>
       </c>
@@ -8726,7 +8730,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>11536</v>
       </c>
@@ -8750,7 +8754,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>250</v>
@@ -8770,7 +8774,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>11202</v>
       </c>
@@ -8794,7 +8798,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>11597</v>
       </c>
@@ -8818,7 +8822,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>11263</v>
       </c>
@@ -8844,7 +8848,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>253</v>
@@ -8864,7 +8868,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>11658</v>
       </c>
@@ -8890,7 +8894,7 @@
         <v>42719</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>254</v>
@@ -8910,7 +8914,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="50" t="s">
         <v>255</v>
       </c>
@@ -8925,7 +8929,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>11324</v>
       </c>
@@ -8949,7 +8953,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>46784</v>
       </c>
@@ -8975,7 +8979,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>11383</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>261</v>
@@ -9016,7 +9020,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>11049</v>
       </c>
@@ -9040,7 +9044,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>263</v>
@@ -9057,7 +9061,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>11444</v>
       </c>
@@ -9081,7 +9085,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>264</v>
@@ -9098,7 +9102,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>11110</v>
       </c>
@@ -9122,7 +9126,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>11505</v>
       </c>
@@ -9145,7 +9149,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>239</v>
@@ -9167,7 +9171,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>268</v>
@@ -9187,7 +9191,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>11536</v>
       </c>
@@ -9211,7 +9215,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>11202</v>
       </c>
@@ -9235,7 +9239,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>11597</v>
       </c>
@@ -9261,7 +9265,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>272</v>
@@ -9281,7 +9285,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>11263</v>
       </c>
@@ -9305,7 +9309,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>11658</v>
       </c>
@@ -9329,7 +9333,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="50" t="s">
         <v>275</v>
       </c>
@@ -9347,7 +9351,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>11324</v>
       </c>
@@ -9367,7 +9371,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>46784</v>
       </c>
@@ -9391,7 +9395,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>11383</v>
       </c>
@@ -9415,7 +9419,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>11049</v>
       </c>
@@ -9441,7 +9445,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>217</v>
@@ -9461,7 +9465,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>233</v>
@@ -9483,7 +9487,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>281</v>
@@ -9503,7 +9507,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>11444</v>
       </c>
@@ -9529,7 +9533,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>239</v>
@@ -9551,7 +9555,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>224</v>
@@ -9573,7 +9577,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>286</v>
@@ -9593,7 +9597,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>11110</v>
       </c>
@@ -9615,7 +9619,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>11505</v>
       </c>
@@ -9635,7 +9639,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>11536</v>
       </c>
@@ -9659,7 +9663,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>289</v>
@@ -9679,7 +9683,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>11202</v>
       </c>
@@ -9701,7 +9705,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>11597</v>
       </c>
@@ -9721,7 +9725,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>11263</v>
       </c>
@@ -9745,7 +9749,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>281</v>
@@ -9765,7 +9769,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>11658</v>
       </c>
@@ -9791,7 +9795,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>233</v>
@@ -9813,7 +9817,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>293</v>
@@ -9833,7 +9837,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="50" t="s">
         <v>294</v>
       </c>
@@ -9851,7 +9855,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <v>11324</v>
       </c>
@@ -9871,7 +9875,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23">
         <v>46784</v>
       </c>
@@ -9897,7 +9901,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <v>11383</v>
       </c>
@@ -9917,7 +9921,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23">
         <v>11049</v>
       </c>
@@ -9937,7 +9941,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23">
         <v>11444</v>
       </c>
@@ -9963,7 +9967,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="20" t="s">
         <v>217</v>
@@ -9983,7 +9987,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23">
         <v>11110</v>
       </c>
@@ -10003,7 +10007,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23">
         <v>11505</v>
       </c>
@@ -10023,7 +10027,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <v>11536</v>
       </c>
@@ -10043,7 +10047,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <v>11202</v>
       </c>
@@ -10063,7 +10067,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <v>11597</v>
       </c>
@@ -10089,7 +10093,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>229</v>
@@ -10109,7 +10113,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <v>11263</v>
       </c>
@@ -10129,7 +10133,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <v>11658</v>
       </c>
@@ -10149,7 +10153,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="50" t="s">
         <v>302</v>
       </c>
@@ -10167,7 +10171,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23">
         <v>11324</v>
       </c>
@@ -10187,7 +10191,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <v>46784</v>
       </c>
@@ -10207,7 +10211,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23">
         <v>11383</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="50"/>
       <c r="B361" s="20" t="s">
         <v>224</v>
@@ -10255,7 +10259,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <v>11049</v>
       </c>
@@ -10275,7 +10279,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <v>11444</v>
       </c>
@@ -10295,7 +10299,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23">
         <v>11110</v>
       </c>
@@ -10321,7 +10325,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <v>11505</v>
       </c>
@@ -10341,7 +10345,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23">
         <v>11536</v>
       </c>
@@ -10361,7 +10365,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <v>11202</v>
       </c>
@@ -10381,7 +10385,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23">
         <v>11597</v>
       </c>
@@ -10407,7 +10411,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <v>11628</v>
       </c>
@@ -10431,7 +10435,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>217</v>
@@ -10451,7 +10455,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23">
         <v>11658</v>
       </c>
@@ -10471,7 +10475,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="50" t="s">
         <v>309</v>
       </c>
@@ -10489,7 +10493,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <v>11324</v>
       </c>
@@ -10509,7 +10513,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23">
         <v>46784</v>
       </c>
@@ -10529,7 +10533,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <v>11383</v>
       </c>
@@ -10555,7 +10559,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <v>11049</v>
       </c>
@@ -10581,7 +10585,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23"/>
       <c r="B377" s="20" t="s">
         <v>229</v>
@@ -10601,7 +10605,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23">
         <v>11444</v>
       </c>
@@ -10627,7 +10631,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>282</v>
@@ -10651,7 +10655,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <v>11110</v>
       </c>
@@ -10671,7 +10675,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23">
         <v>11505</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23">
         <v>11536</v>
       </c>
@@ -10717,7 +10721,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <v>11202</v>
       </c>
@@ -10737,7 +10741,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="23" t="s">
         <v>316</v>
       </c>
@@ -10761,7 +10765,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <v>11263</v>
       </c>
@@ -10785,7 +10789,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <v>11658</v>
       </c>
@@ -10809,7 +10813,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="50" t="s">
         <v>318</v>
       </c>
@@ -10827,7 +10831,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23">
         <v>11324</v>
       </c>
@@ -10847,7 +10851,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <v>46784</v>
       </c>
@@ -10867,7 +10871,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <v>11383</v>
       </c>
@@ -10887,7 +10891,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <v>11049</v>
       </c>
@@ -10913,7 +10917,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <v>11444</v>
       </c>
@@ -10933,7 +10937,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <v>11110</v>
       </c>
@@ -10953,7 +10957,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <v>11505</v>
       </c>
@@ -10973,7 +10977,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23">
         <v>11536</v>
       </c>
@@ -10993,7 +10997,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <v>11202</v>
       </c>
@@ -11013,7 +11017,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <v>11597</v>
       </c>
@@ -11037,7 +11041,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23">
         <v>11263</v>
       </c>
@@ -11057,7 +11061,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <v>11658</v>
       </c>
@@ -11077,7 +11081,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="50" t="s">
         <v>320</v>
       </c>
@@ -11095,7 +11099,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23">
         <v>11324</v>
       </c>
@@ -11115,7 +11119,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <v>46784</v>
       </c>
@@ -11135,7 +11139,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23">
         <v>11383</v>
       </c>
@@ -11161,7 +11165,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23">
         <v>11049</v>
       </c>
@@ -11181,7 +11185,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="23">
         <v>11444</v>
       </c>
@@ -11207,7 +11211,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <v>11110</v>
       </c>
@@ -11227,7 +11231,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <v>11505</v>
       </c>
@@ -11247,7 +11251,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <v>11536</v>
       </c>
@@ -11267,7 +11271,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <v>11202</v>
       </c>
@@ -11293,7 +11297,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <v>11597</v>
       </c>
@@ -11313,7 +11317,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23">
         <v>11263</v>
       </c>
@@ -11333,7 +11337,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23">
         <v>11658</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="50" t="s">
         <v>326</v>
       </c>
@@ -11377,7 +11381,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <v>11324</v>
       </c>
@@ -11397,7 +11401,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23">
         <v>46784</v>
       </c>
@@ -11417,7 +11421,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23">
         <v>11383</v>
       </c>
@@ -11443,7 +11447,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23"/>
       <c r="B417" s="20" t="s">
         <v>328</v>
@@ -11465,7 +11469,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <v>11049</v>
       </c>
@@ -11485,7 +11489,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23">
         <v>11444</v>
       </c>
@@ -11511,7 +11515,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <v>11110</v>
       </c>
@@ -11531,7 +11535,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <v>11505</v>
       </c>
@@ -11551,7 +11555,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23">
         <v>11536</v>
       </c>
@@ -11571,7 +11575,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23">
         <v>11202</v>
       </c>
@@ -11591,7 +11595,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23">
         <v>11597</v>
       </c>
@@ -11611,7 +11615,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23">
         <v>11263</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23"/>
       <c r="B426" s="20" t="s">
         <v>323</v>
@@ -11657,7 +11661,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="23"/>
       <c r="B427" s="20" t="s">
         <v>323</v>
@@ -11679,7 +11683,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>11658</v>
       </c>
@@ -11699,7 +11703,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="50" t="s">
         <v>333</v>
       </c>
@@ -11717,7 +11721,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>11324</v>
       </c>
@@ -11737,7 +11741,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46784</v>
       </c>
@@ -11763,7 +11767,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>11383</v>
       </c>
@@ -11789,7 +11793,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>327</v>
@@ -11811,7 +11815,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>11049</v>
       </c>
@@ -11831,7 +11835,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>11444</v>
       </c>
@@ -11857,7 +11861,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>328</v>
@@ -11879,7 +11883,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>323</v>
@@ -11901,7 +11905,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>11110</v>
       </c>
@@ -11921,7 +11925,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>11505</v>
       </c>
@@ -11945,7 +11949,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>328</v>
@@ -11967,7 +11971,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>11536</v>
       </c>
@@ -11987,7 +11991,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>11202</v>
       </c>
@@ -12007,7 +12011,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>11597</v>
       </c>
@@ -12033,7 +12037,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>11263</v>
       </c>
@@ -12053,7 +12057,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>11658</v>
       </c>
@@ -12073,7 +12077,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="50" t="s">
         <v>345</v>
       </c>
@@ -12091,7 +12095,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>11324</v>
       </c>
@@ -12111,7 +12115,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>46784</v>
       </c>
@@ -12131,7 +12135,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>11383</v>
       </c>
@@ -12157,7 +12161,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>11049</v>
       </c>
@@ -12177,7 +12181,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>11444</v>
       </c>
@@ -12203,7 +12207,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>328</v>
@@ -12225,7 +12229,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>11110</v>
       </c>
@@ -12245,7 +12249,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>11505</v>
       </c>
@@ -12271,7 +12275,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>11536</v>
       </c>
@@ -12291,7 +12295,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>11202</v>
       </c>
@@ -12311,7 +12315,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>11597</v>
       </c>
@@ -12337,7 +12341,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>11263</v>
       </c>
@@ -12357,7 +12361,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>11658</v>
       </c>
@@ -12383,7 +12387,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="50" t="s">
         <v>351</v>
       </c>
@@ -12401,7 +12405,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>11324</v>
       </c>
@@ -12421,7 +12425,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>46784</v>
       </c>
@@ -12447,7 +12451,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>11383</v>
       </c>
@@ -12467,7 +12471,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>11049</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>11444</v>
       </c>
@@ -12519,7 +12523,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>328</v>
@@ -12541,7 +12545,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>11110</v>
       </c>
@@ -12565,7 +12569,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>11505</v>
       </c>
@@ -12585,7 +12589,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>11536</v>
       </c>
@@ -12611,7 +12615,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>11202</v>
       </c>
@@ -12637,7 +12641,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>11597</v>
       </c>
@@ -12657,7 +12661,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>11263</v>
       </c>
@@ -12681,7 +12685,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>11658</v>
       </c>
@@ -12701,7 +12705,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="50" t="s">
         <v>360</v>
       </c>
@@ -12719,7 +12723,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>11324</v>
       </c>
@@ -12739,7 +12743,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>46784</v>
       </c>
@@ -12759,7 +12763,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>11383</v>
       </c>
@@ -12779,7 +12783,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>11049</v>
       </c>
@@ -12799,7 +12803,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>11444</v>
       </c>
@@ -12819,7 +12823,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>11110</v>
       </c>
@@ -12839,7 +12843,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>11505</v>
       </c>
@@ -12859,7 +12863,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>11536</v>
       </c>
@@ -12879,7 +12883,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>11202</v>
       </c>
@@ -12899,7 +12903,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>11597</v>
       </c>
@@ -12919,7 +12923,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>11263</v>
       </c>
@@ -12943,7 +12947,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>339</v>
@@ -12965,7 +12969,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>11658</v>
       </c>
@@ -12989,7 +12993,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="50" t="s">
         <v>363</v>
       </c>
@@ -13007,7 +13011,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>11324</v>
       </c>
@@ -13027,7 +13031,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>46784</v>
       </c>
@@ -13047,7 +13051,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>11383</v>
       </c>
@@ -13067,7 +13071,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>11049</v>
       </c>
@@ -13087,7 +13091,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>11444</v>
       </c>
@@ -13107,7 +13111,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>11110</v>
       </c>
@@ -13127,7 +13131,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>11505</v>
       </c>
@@ -13147,7 +13151,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>11536</v>
       </c>
@@ -13167,7 +13171,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>11202</v>
       </c>
@@ -13187,7 +13191,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>11597</v>
       </c>
@@ -13211,7 +13215,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>11263</v>
       </c>
@@ -13231,7 +13235,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>11658</v>
       </c>
@@ -13257,7 +13261,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>217</v>
@@ -13277,7 +13281,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="50" t="s">
         <v>366</v>
       </c>
@@ -13295,7 +13299,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>11324</v>
       </c>
@@ -13315,7 +13319,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>46784</v>
       </c>
@@ -13335,7 +13339,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>11383</v>
       </c>
@@ -13359,7 +13363,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>11049</v>
       </c>
@@ -13379,7 +13383,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>11444</v>
       </c>
@@ -13405,7 +13409,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>11110</v>
       </c>
@@ -13431,7 +13435,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>11505</v>
       </c>
@@ -13451,7 +13455,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>11536</v>
       </c>
@@ -13477,7 +13481,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>370</v>
@@ -13499,7 +13503,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>11202</v>
       </c>
@@ -13519,7 +13523,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>11597</v>
       </c>
@@ -13545,7 +13549,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>11263</v>
       </c>
@@ -13565,7 +13569,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>11658</v>
       </c>
@@ -13585,7 +13589,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="50" t="s">
         <v>372</v>
       </c>
@@ -13603,71 +13607,91 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A517" s="40"/>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A517" s="40">
+        <v>44927</v>
+      </c>
       <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A518" s="40"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A518" s="40">
+        <v>44958</v>
+      </c>
       <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A519" s="40"/>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A519" s="40">
+        <v>44986</v>
+      </c>
       <c r="B519" s="20"/>
-      <c r="C519" s="13"/>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A520" s="40"/>
-      <c r="B520" s="20"/>
-      <c r="C520" s="13"/>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A520" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B520" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
-      <c r="K520" s="20"/>
-    </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K520" s="59">
+        <v>45044</v>
+      </c>
+    </row>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -13683,7 +13707,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -13699,7 +13723,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -13715,7 +13739,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -13731,7 +13755,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -13747,7 +13771,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -13763,7 +13787,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -13779,7 +13803,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -13795,7 +13819,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -13811,7 +13835,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -13827,7 +13851,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -13843,7 +13867,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -13859,7 +13883,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -13875,7 +13899,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -13891,7 +13915,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -13907,7 +13931,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -13923,7 +13947,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -13939,7 +13963,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -13955,7 +13979,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -13971,7 +13995,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -13987,7 +14011,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14003,7 +14027,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14034,10 +14058,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"REGULAR, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14060,28 +14084,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="68" t="s">
         <v>33</v>
       </c>
@@ -14094,7 +14118,7 @@
       <c r="K1" s="69"/>
       <c r="L1" s="69"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14123,7 +14147,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -14143,17 +14167,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14174,7 +14198,7 @@
       <c r="K6" s="70"/>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14201,7 +14225,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14227,7 +14251,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14253,7 +14277,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14279,7 +14303,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14305,7 +14329,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14331,7 +14355,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -14357,7 +14381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -14383,7 +14407,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -14403,7 +14427,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -14423,7 +14447,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -14443,7 +14467,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -14464,7 +14488,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -14485,7 +14509,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -14506,7 +14530,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -14527,7 +14551,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -14548,7 +14572,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -14569,7 +14593,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -14590,7 +14614,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -14611,7 +14635,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -14632,7 +14656,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -14653,7 +14677,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -14674,7 +14698,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -14695,7 +14719,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -14716,7 +14740,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -14737,7 +14761,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -14758,7 +14782,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -14779,7 +14803,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -14800,7 +14824,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -14821,7 +14845,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -14842,7 +14866,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14863,7 +14887,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14872,7 +14896,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14881,7 +14905,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14890,7 +14914,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14899,7 +14923,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14908,7 +14932,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14917,7 +14941,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14926,7 +14950,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14935,7 +14959,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14944,7 +14968,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14953,7 +14977,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14962,7 +14986,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14971,7 +14995,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14980,7 +15004,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14989,7 +15013,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14998,7 +15022,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15007,7 +15031,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15016,7 +15040,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15025,7 +15049,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15034,7 +15058,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15043,7 +15067,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15052,7 +15076,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15061,7 +15085,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15070,7 +15094,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15079,7 +15103,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15088,7 +15112,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15097,7 +15121,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15106,7 +15130,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15115,7 +15139,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15124,7 +15148,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/GUTIERREZ, LYDIA CALANOG.xlsx
+++ b/REGULAR/GUTIERREZ, LYDIA CALANOG.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="375">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2221,7 +2221,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A505" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C523" sqref="C523"/>
+      <selection pane="bottomLeft" activeCell="B522" sqref="B522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13692,8 +13692,12 @@
       </c>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A521" s="40"/>
-      <c r="B521" s="20"/>
+      <c r="A521" s="40">
+        <v>45047</v>
+      </c>
+      <c r="B521" s="20" t="s">
+        <v>229</v>
+      </c>
       <c r="C521" s="13"/>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
@@ -13705,7 +13709,9 @@
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
-      <c r="K521" s="20"/>
+      <c r="K521" s="59">
+        <v>45071</v>
+      </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
